--- a/data1.xlsx
+++ b/data1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="117">
   <si>
     <t>Question</t>
   </si>
@@ -323,18 +323,6 @@
     <t>Severe</t>
   </si>
   <si>
-    <t>0-25</t>
-  </si>
-  <si>
-    <t>25-50</t>
-  </si>
-  <si>
-    <t>50-75</t>
-  </si>
-  <si>
-    <t>75-100</t>
-  </si>
-  <si>
     <t>Range</t>
   </si>
   <si>
@@ -342,6 +330,86 @@
   </si>
   <si>
     <t>Upper Range</t>
+  </si>
+  <si>
+    <t>Level Name</t>
+  </si>
+  <si>
+    <t>0 = The subject reports no anxiety in the last month.</t>
+  </si>
+  <si>
+    <t>1 = The subject reports mild anxiety. The subject's anxiety lies within the
+normal range of variation in mood experienced by the majority of people in the
+course of their daily lives. A mild and transient response to minor life stresses.
+The subject can easily and quickly stop their anxious thoughts and feelings by
+turning their attention to other things, or these thoughts and feelings quickly
+come and go of their own accord. No signs of motor tension or autonomic
+hyperactivity are present.</t>
+  </si>
+  <si>
+    <t>0-25%</t>
+  </si>
+  <si>
+    <t>2 = The subject reports moderate anxiety. The subject is able to exercise
+some control over their anxiety, and can reduce or put a stop to the anxiety by
+turning their attention to other things, but this requires a distinct and sustained
+effort. If signs of motor tension or autonomic hyperactivity are present these are
+mild or of very brief duration.</t>
+  </si>
+  <si>
+    <t>25-50%</t>
+  </si>
+  <si>
+    <t>3 = The subject reports marked anxiety. The subject has no control over the
+anxiety when it occurs and cannot turn their attention to other things, even when
+a distinct and sustained effort is made. At least one marked and persistent sign
+of motor tension or autonomic hyperactivity should accompany the anxiety. The
+anxiety has been present in this form on the minority of days in the last month.</t>
+  </si>
+  <si>
+    <t>50-75%</t>
+  </si>
+  <si>
+    <t>4 = The subject reports severe anxiety. The subject has no control over their
+anxiety when it occurs and cannot turn their attention to other things, even when
+a distinct and sustained effort is made. At least one marked and persistent sign of
+motor tension or autonomic hyperactivity should accompany the anxiety. The
+anxiety has been present in this form on the majority of days in the last month.</t>
+  </si>
+  <si>
+    <t>75-100%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signs of motor tension include: physical restlessness, trembling,
+involuntarily tensed muscles, tension pains affecting neck, back or legs and
+tension headaches. Signs or autonomic hyperactivity include: gastro-intestinal:
+dry mouth, difficulty swallowing, epigastric discomfort, frequent loose motions;
+respiratory: feeling of constriction in the chest, difficulty inhaling,
+hyperventilation; cardiovascular: discomfort over the heart, palpitations, missed
+heartbeats, throbbing in the neck; genitourinary; frequency and urgency of
+micturition, failure of erection, lack of libido, increased menstrual discomfort;
+nervous system: tinnitus, blurring of vision, dizziness, prickling sensations,
+sweating, blushing.
+</t>
+  </si>
+  <si>
+    <t>&gt;63%</t>
+  </si>
+  <si>
+    <t>Some of the subject's utilise avoidance strategies as a means of coping with
+their anxiety.
+They may report experiencing little or no anxiety in the previous month because
+they have avoided those situations which would have provoked anxiety. For
+example, a person who experiences severe anxiety in public situations may have
+avoided this by staying at home all the time, relying on a relative or other carer
+to carry out essential tasks like shopping or going to work. In these
+circumstances it is recommended that the score for anxiety should be based on
+the level of reported anxiety experienced by the subject, but the presence of
+avoidance strategies, the frequency with which they are employed and the
+disruption they cause to the person's social functioning should also be noted.</t>
+  </si>
+  <si>
+    <t>ANXIETY-RATING SCALE</t>
   </si>
 </sst>
 </file>
@@ -377,8 +445,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,19 +733,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="64.28515625" customWidth="1"/>
+    <col min="1" max="1" width="64.33203125" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -702,7 +774,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -728,7 +800,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -748,7 +820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -768,7 +840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -788,7 +860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -808,7 +880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -828,7 +900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -845,7 +917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -865,7 +937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -885,7 +957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -905,7 +977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -925,7 +997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -945,7 +1017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -965,7 +1037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -985,7 +1057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1005,7 +1077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1025,7 +1097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1045,7 +1117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1065,7 +1137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1085,7 +1157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1105,7 +1177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -1125,7 +1197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -1145,7 +1217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -1165,7 +1237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -1185,7 +1257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -1205,7 +1277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -1225,7 +1297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -1245,7 +1317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -1265,7 +1337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -1285,7 +1357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -1305,7 +1377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -1325,7 +1397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -1345,7 +1417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -1365,7 +1437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -1385,7 +1457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -1405,7 +1477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -1425,7 +1497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -1445,7 +1517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>64</v>
       </c>
@@ -1465,7 +1537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -1485,7 +1557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -1505,7 +1577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -1525,7 +1597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>68</v>
       </c>
@@ -1545,7 +1617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -1565,7 +1637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>71</v>
       </c>
@@ -1585,7 +1657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>72</v>
       </c>
@@ -1605,7 +1677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>73</v>
       </c>
@@ -1625,7 +1697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>75</v>
       </c>
@@ -1645,7 +1717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>76</v>
       </c>
@@ -1665,7 +1737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -1685,7 +1757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>78</v>
       </c>
@@ -1705,7 +1777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>79</v>
       </c>
@@ -1725,7 +1797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>80</v>
       </c>
@@ -1745,7 +1817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>81</v>
       </c>
@@ -1765,7 +1837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>82</v>
       </c>
@@ -1785,7 +1857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>83</v>
       </c>
@@ -1805,7 +1877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>85</v>
       </c>
@@ -1825,7 +1897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>86</v>
       </c>
@@ -1845,7 +1917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>87</v>
       </c>
@@ -1865,7 +1937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>88</v>
       </c>
@@ -1885,7 +1957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>90</v>
       </c>
@@ -1905,7 +1977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>91</v>
       </c>
@@ -1932,74 +2004,111 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="74.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>104</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" t="s">
-        <v>100</v>
+      <c r="B2" s="1">
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" t="s">
-        <v>101</v>
+    <row r="3" spans="1:3" ht="164.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" t="s">
-        <v>102</v>
+    <row r="4" spans="1:3" ht="124.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" t="s">
-        <v>103</v>
+    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="224.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2011,23 +2120,23 @@
       <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>95</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -2041,7 +2150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -2055,7 +2164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -2069,7 +2178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>99</v>
       </c>

--- a/data1.xlsx
+++ b/data1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="119">
   <si>
     <t>Question</t>
   </si>
@@ -410,6 +410,12 @@
   </si>
   <si>
     <t>ANXIETY-RATING SCALE</t>
+  </si>
+  <si>
+    <t>&gt;50%</t>
+  </si>
+  <si>
+    <t>the sample recommendations</t>
   </si>
 </sst>
 </file>
@@ -733,19 +739,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.33203125" customWidth="1"/>
+    <col min="1" max="1" width="64.28515625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="4" max="4" width="25.88671875" customWidth="1"/>
-    <col min="5" max="5" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -774,7 +780,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -800,7 +806,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -820,7 +826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -840,7 +846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -860,7 +866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -880,7 +886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -900,7 +906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -917,7 +923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -937,7 +943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -957,7 +963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -977,7 +983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -997,7 +1003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1017,7 +1023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1037,7 +1043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1057,7 +1063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1077,7 +1083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1097,7 +1103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1117,7 +1123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1137,7 +1143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1157,7 +1163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1177,7 +1183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -1197,7 +1203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -1217,7 +1223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -1237,7 +1243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -1257,7 +1263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -1277,7 +1283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -1297,7 +1303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -1317,7 +1323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -1337,7 +1343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -1357,7 +1363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -1377,7 +1383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -1397,7 +1403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -1417,7 +1423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -1437,7 +1443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -1457,7 +1463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -1477,7 +1483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -1497,7 +1503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -1517,7 +1523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>64</v>
       </c>
@@ -1537,7 +1543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -1557,7 +1563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -1577,7 +1583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -1597,7 +1603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>68</v>
       </c>
@@ -1617,7 +1623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -1637,7 +1643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>71</v>
       </c>
@@ -1657,7 +1663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>72</v>
       </c>
@@ -1677,7 +1683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>73</v>
       </c>
@@ -1697,7 +1703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>75</v>
       </c>
@@ -1717,7 +1723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>76</v>
       </c>
@@ -1737,7 +1743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -1757,7 +1763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>78</v>
       </c>
@@ -1777,7 +1783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>79</v>
       </c>
@@ -1797,7 +1803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>80</v>
       </c>
@@ -1817,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>81</v>
       </c>
@@ -1837,7 +1843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>82</v>
       </c>
@@ -1857,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>83</v>
       </c>
@@ -1877,7 +1883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>85</v>
       </c>
@@ -1897,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>86</v>
       </c>
@@ -1917,7 +1923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>87</v>
       </c>
@@ -1937,7 +1943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>88</v>
       </c>
@@ -1957,7 +1963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>90</v>
       </c>
@@ -1977,7 +1983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>91</v>
       </c>
@@ -2004,21 +2010,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="74.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.77734375" customWidth="1"/>
+    <col min="1" max="1" width="74.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -2029,7 +2035,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -2040,7 +2046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="164.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="164.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>105</v>
       </c>
@@ -2051,7 +2057,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="124.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="124.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>107</v>
       </c>
@@ -2062,7 +2068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>109</v>
       </c>
@@ -2073,7 +2079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>111</v>
       </c>
@@ -2084,7 +2090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="224.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="224.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>113</v>
       </c>
@@ -2095,7 +2101,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>115</v>
       </c>
@@ -2104,6 +2110,17 @@
       </c>
       <c r="C8" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2120,9 +2137,9 @@
       <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>95</v>
       </c>
@@ -2136,7 +2153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -2150,7 +2167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -2164,7 +2181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -2178,7 +2195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>99</v>
       </c>
